--- a/Code/Data/MPC/mpc_compare.xlsx
+++ b/Code/Data/MPC/mpc_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toon\PycharmProjects\Thesis\Code\Data\MPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD5043A-3FE5-42AF-9EC8-8A80AED246B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170661FE-0274-430B-895A-E56CE7FF3257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Horizon</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>w0 live</t>
   </si>
 </sst>
 </file>
@@ -201,6 +213,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -416,6 +429,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -636,6 +652,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>B</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -856,6 +875,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1076,6 +1098,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>D</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1711,6 +1736,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2688,6 +2714,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5252,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6239,6 +6266,18 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
